--- a/Genes_of_interest_TAN_Stringentcutoff_excel.xlsx
+++ b/Genes_of_interest_TAN_Stringentcutoff_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fe7511e01eadebe/Academic/R_coding/ResearchProject1/CardiomyopathyGroup2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:40009_{A05F3F2F-EBB3-4D1B-9A3F-D4F1AB1CAFF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{47B82D54-F64D-4338-A18B-A4BE1CFC1C8F}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:40009_{A05F3F2F-EBB3-4D1B-9A3F-D4F1AB1CAFF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D02D51C-6266-423D-A5B9-65C4856AEB44}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1:AX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1453,7 +1453,9 @@
     <col min="17" max="17" width="6.5546875" style="4" hidden="1" customWidth="1"/>
     <col min="18" max="25" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="17.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="27" max="50" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="27" max="48" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="4.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="11.5546875" style="4" hidden="1" customWidth="1"/>
     <col min="51" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
@@ -1761,7 +1763,7 @@
     </row>
     <row r="3" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="b">
-        <f t="shared" ref="A2:A13" si="0">IF(C3&gt;3,TRUE,FALSE)</f>
+        <f t="shared" ref="A3:A13" si="0">IF(C3&gt;3,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">

--- a/Genes_of_interest_TAN_Stringentcutoff_excel.xlsx
+++ b/Genes_of_interest_TAN_Stringentcutoff_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fe7511e01eadebe/Academic/R_coding/ResearchProject1/CardiomyopathyGroup2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:40009_{A05F3F2F-EBB3-4D1B-9A3F-D4F1AB1CAFF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D02D51C-6266-423D-A5B9-65C4856AEB44}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:40009_{A05F3F2F-EBB3-4D1B-9A3F-D4F1AB1CAFF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{27919AD4-5FBF-4F5D-9008-BC27031440D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="139">
   <si>
     <t>@id</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>Gene of Interest? (Degree&gt;3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting genees of interest based on degree &gt; 3 </t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX13"/>
+  <dimension ref="A1:AX14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1:AX1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2886,6 +2889,11 @@
         <v>114</v>
       </c>
     </row>
+    <row r="14" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AX13">
     <sortCondition descending="1" ref="C1:C13"/>
